--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_호남선.xlsx
@@ -48,9 +48,6 @@
     <t>NBEATSx</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>DilatedRNN</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>MLP</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>131835065348.7249</v>
+        <v>129674309321.1924</v>
       </c>
       <c r="C4">
-        <v>363090.9876996742</v>
+        <v>360103.192600666</v>
       </c>
       <c r="D4">
-        <v>0.03498811688571753</v>
+        <v>0.03621406533670912</v>
       </c>
       <c r="E4">
-        <v>185104.234375</v>
+        <v>195605.234375</v>
       </c>
       <c r="F4">
-        <v>0.1287886435220153</v>
+        <v>0.1408281625542005</v>
       </c>
       <c r="G4">
-        <v>90217.78125</v>
+        <v>101198.21875</v>
       </c>
       <c r="H4">
-        <v>0.0888971916292613</v>
+        <v>0.09958035899329379</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>129674309321.1924</v>
+        <v>129328004677.5127</v>
       </c>
       <c r="C5">
-        <v>360103.192600666</v>
+        <v>359622.0303005819</v>
       </c>
       <c r="D5">
-        <v>0.03621406533670912</v>
+        <v>0.03991844095559782</v>
       </c>
       <c r="E5">
-        <v>195605.234375</v>
+        <v>198492.921875</v>
       </c>
       <c r="F5">
-        <v>0.1408281625542005</v>
+        <v>0.1450925069106751</v>
       </c>
       <c r="G5">
-        <v>101198.21875</v>
+        <v>109383.65625</v>
       </c>
       <c r="H5">
-        <v>0.09958035899329379</v>
+        <v>0.104801863243321</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>129328004677.5127</v>
+        <v>133701743506.3021</v>
       </c>
       <c r="C6">
-        <v>359622.0303005819</v>
+        <v>365652.4900862868</v>
       </c>
       <c r="D6">
-        <v>0.03991844095559782</v>
+        <v>0.04511500414983697</v>
       </c>
       <c r="E6">
-        <v>198492.921875</v>
+        <v>218547.90625</v>
       </c>
       <c r="F6">
-        <v>0.1450925069106751</v>
+        <v>0.1654105317018767</v>
       </c>
       <c r="G6">
-        <v>109383.65625</v>
+        <v>107162.59375</v>
       </c>
       <c r="H6">
-        <v>0.104801863243321</v>
+        <v>0.1054511753996051</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>133701743506.3021</v>
+        <v>140967183431.7962</v>
       </c>
       <c r="C7">
-        <v>365652.4900862868</v>
+        <v>375455.9673674081</v>
       </c>
       <c r="D7">
-        <v>0.04511500414983697</v>
+        <v>0.0444922664604471</v>
       </c>
       <c r="E7">
-        <v>218547.90625</v>
+        <v>218972.1458333333</v>
       </c>
       <c r="F7">
-        <v>0.1654105317018767</v>
+        <v>0.163006142284401</v>
       </c>
       <c r="G7">
-        <v>107162.59375</v>
+        <v>156992.15625</v>
       </c>
       <c r="H7">
-        <v>0.1054511753996051</v>
+        <v>0.1590397392448714</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>140967183431.7962</v>
+        <v>184253782111.9232</v>
       </c>
       <c r="C8">
-        <v>375455.9673674081</v>
+        <v>429247.9261591409</v>
       </c>
       <c r="D8">
-        <v>0.0444922664604471</v>
+        <v>0.09171068595358789</v>
       </c>
       <c r="E8">
-        <v>218972.1458333333</v>
+        <v>299565.3932291667</v>
       </c>
       <c r="F8">
-        <v>0.163006142284401</v>
+        <v>0.2444524578974622</v>
       </c>
       <c r="G8">
-        <v>156992.15625</v>
+        <v>137549.0625</v>
       </c>
       <c r="H8">
-        <v>0.1590397392448714</v>
+        <v>0.1369160915041052</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>184253782111.9232</v>
+        <v>170095140850.7025</v>
       </c>
       <c r="C9">
-        <v>429247.9261591409</v>
+        <v>412425.9216522435</v>
       </c>
       <c r="D9">
-        <v>0.09171068595358789</v>
+        <v>0.07679860921302156</v>
       </c>
       <c r="E9">
-        <v>299565.3932291667</v>
+        <v>289208.4583333333</v>
       </c>
       <c r="F9">
-        <v>0.2444524578974622</v>
+        <v>0.2337165805075608</v>
       </c>
       <c r="G9">
-        <v>137549.0625</v>
+        <v>200494.25</v>
       </c>
       <c r="H9">
-        <v>0.1369160915041052</v>
+        <v>0.1904240732490254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>170095140850.7025</v>
+        <v>204884801194.7949</v>
       </c>
       <c r="C10">
-        <v>412425.9216522435</v>
+        <v>452642.0232311566</v>
       </c>
       <c r="D10">
-        <v>0.07679860921302156</v>
+        <v>0.08272146167433646</v>
       </c>
       <c r="E10">
-        <v>289208.4583333333</v>
+        <v>327488.7204252223</v>
       </c>
       <c r="F10">
-        <v>0.2337165805075608</v>
+        <v>0.2636003989294531</v>
       </c>
       <c r="G10">
-        <v>200494.25</v>
+        <v>233785.3286654915</v>
       </c>
       <c r="H10">
-        <v>0.1904240732490254</v>
+        <v>0.2332291644478908</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>204884801194.7949</v>
+        <v>194980731336.9818</v>
       </c>
       <c r="C11">
-        <v>452642.0232311566</v>
+        <v>441566.2253127857</v>
       </c>
       <c r="D11">
-        <v>0.08272146167433646</v>
+        <v>0.08005215679898768</v>
       </c>
       <c r="E11">
-        <v>327488.7204252223</v>
+        <v>313930.40625</v>
       </c>
       <c r="F11">
-        <v>0.2636003989294531</v>
+        <v>0.2527384841897122</v>
       </c>
       <c r="G11">
-        <v>233785.3286654915</v>
+        <v>243365.4375</v>
       </c>
       <c r="H11">
-        <v>0.2332291644478908</v>
+        <v>0.247823378544239</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>194980731336.9818</v>
+        <v>195785872110.7588</v>
       </c>
       <c r="C12">
-        <v>441566.2253127857</v>
+        <v>442476.9735373342</v>
       </c>
       <c r="D12">
-        <v>0.08005215679898768</v>
+        <v>0.08068455480262469</v>
       </c>
       <c r="E12">
-        <v>313930.40625</v>
+        <v>318388.6362028705</v>
       </c>
       <c r="F12">
-        <v>0.2527384841897122</v>
+        <v>0.2567951091766781</v>
       </c>
       <c r="G12">
-        <v>243365.4375</v>
+        <v>242974.4933561506</v>
       </c>
       <c r="H12">
-        <v>0.247823378544239</v>
+        <v>0.2474244156120383</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>195785872110.7588</v>
+        <v>194565003137.4846</v>
       </c>
       <c r="C13">
-        <v>442476.9735373342</v>
+        <v>441095.2313701482</v>
       </c>
       <c r="D13">
-        <v>0.08068455480262469</v>
+        <v>0.08034299314733022</v>
       </c>
       <c r="E13">
-        <v>318388.6362028705</v>
+        <v>319296.3891210802</v>
       </c>
       <c r="F13">
-        <v>0.2567951091766781</v>
+        <v>0.2579439880615044</v>
       </c>
       <c r="G13">
-        <v>242974.4933561506</v>
+        <v>252981.3472916668</v>
       </c>
       <c r="H13">
-        <v>0.2474244156120383</v>
+        <v>0.2496259923506825</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>194565003137.4846</v>
+        <v>68960697033939.02</v>
       </c>
       <c r="C14">
-        <v>441095.2313701482</v>
+        <v>8304257.765383913</v>
       </c>
       <c r="D14">
-        <v>0.08034299314733022</v>
+        <v>64.84059653995675</v>
       </c>
       <c r="E14">
-        <v>319296.3891210802</v>
+        <v>6951419.270833333</v>
       </c>
       <c r="F14">
-        <v>0.2579439880615044</v>
+        <v>6.666848308003765</v>
       </c>
       <c r="G14">
-        <v>252981.3472916668</v>
+        <v>7352680.75</v>
       </c>
       <c r="H14">
-        <v>0.2496259923506825</v>
+        <v>7.448588396120817</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>68960697033939.02</v>
+        <v>135014711195808.1</v>
       </c>
       <c r="C15">
-        <v>8304257.765383913</v>
+        <v>11619583.09044727</v>
       </c>
       <c r="D15">
-        <v>64.84059653995675</v>
+        <v>131.0379943896804</v>
       </c>
       <c r="E15">
-        <v>6951419.270833333</v>
+        <v>10194392.75</v>
       </c>
       <c r="F15">
-        <v>6.666848308003765</v>
+        <v>9.942820013996389</v>
       </c>
       <c r="G15">
-        <v>7352680.75</v>
+        <v>9651340</v>
       </c>
       <c r="H15">
-        <v>7.448588396120817</v>
+        <v>9.310952354851251</v>
       </c>
     </row>
   </sheetData>
@@ -930,40 +930,40 @@
         <v>962786.1875</v>
       </c>
       <c r="F2">
-        <v>936893.5625</v>
+        <v>922197</v>
       </c>
       <c r="G2">
-        <v>922197</v>
+        <v>923680.6875</v>
       </c>
       <c r="H2">
-        <v>923680.6875</v>
+        <v>916269.5625</v>
       </c>
       <c r="I2">
-        <v>916269.5625</v>
+        <v>1033759.1875</v>
       </c>
       <c r="J2">
-        <v>1033759.1875</v>
+        <v>922799.125</v>
       </c>
       <c r="K2">
-        <v>922799.125</v>
+        <v>976244.875</v>
       </c>
       <c r="L2">
-        <v>976244.875</v>
+        <v>799505.221539111</v>
       </c>
       <c r="M2">
-        <v>799505.221539111</v>
+        <v>829620.375</v>
       </c>
       <c r="N2">
-        <v>829620.375</v>
+        <v>829805.9591854673</v>
       </c>
       <c r="O2">
-        <v>829805.9591854673</v>
+        <v>828693.3498113276</v>
       </c>
       <c r="P2">
-        <v>828693.3498113276</v>
+        <v>1418353.25</v>
       </c>
       <c r="Q2">
-        <v>1418353.25</v>
+        <v>4675190.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -983,40 +983,40 @@
         <v>962783.8125</v>
       </c>
       <c r="F3">
-        <v>965938.25</v>
+        <v>985108.8125</v>
       </c>
       <c r="G3">
-        <v>985108.8125</v>
+        <v>1010606.375</v>
       </c>
       <c r="H3">
-        <v>1010606.375</v>
+        <v>1016421.125</v>
       </c>
       <c r="I3">
-        <v>1016421.125</v>
+        <v>967533.3125</v>
       </c>
       <c r="J3">
-        <v>967533.3125</v>
+        <v>993570.5</v>
       </c>
       <c r="K3">
-        <v>993570.5</v>
+        <v>988817</v>
       </c>
       <c r="L3">
-        <v>988817</v>
+        <v>820741.2497030696</v>
       </c>
       <c r="M3">
-        <v>820741.2497030696</v>
+        <v>857550.5625</v>
       </c>
       <c r="N3">
-        <v>857550.5625</v>
+        <v>857821.2410041719</v>
       </c>
       <c r="O3">
-        <v>857821.2410041719</v>
+        <v>863145.4623333334</v>
       </c>
       <c r="P3">
-        <v>863145.4623333334</v>
+        <v>-1227318</v>
       </c>
       <c r="Q3">
-        <v>-1227318</v>
+        <v>4675180.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1036,40 +1036,40 @@
         <v>962784.75</v>
       </c>
       <c r="F4">
-        <v>1027905.75</v>
+        <v>907592.5625</v>
       </c>
       <c r="G4">
-        <v>907592.5625</v>
+        <v>932218.1875</v>
       </c>
       <c r="H4">
-        <v>932218.1875</v>
+        <v>901591.25</v>
       </c>
       <c r="I4">
-        <v>901591.25</v>
+        <v>921077.375</v>
       </c>
       <c r="J4">
-        <v>921077.375</v>
+        <v>870853.875</v>
       </c>
       <c r="K4">
-        <v>870853.875</v>
+        <v>903678.4375</v>
       </c>
       <c r="L4">
-        <v>903678.4375</v>
+        <v>713562.4180274772</v>
       </c>
       <c r="M4">
-        <v>713562.4180274772</v>
+        <v>726234.3125</v>
       </c>
       <c r="N4">
-        <v>726234.3125</v>
+        <v>738045.533730357</v>
       </c>
       <c r="O4">
-        <v>738045.533730357</v>
+        <v>718196.9133805915</v>
       </c>
       <c r="P4">
-        <v>718196.9133805915</v>
+        <v>2868061.75</v>
       </c>
       <c r="Q4">
-        <v>2868061.75</v>
+        <v>5341692.5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1089,40 +1089,40 @@
         <v>962786.8125</v>
       </c>
       <c r="F5">
-        <v>1062944.5</v>
+        <v>892300.375</v>
       </c>
       <c r="G5">
-        <v>892300.375</v>
+        <v>905353.6875</v>
       </c>
       <c r="H5">
-        <v>905353.6875</v>
+        <v>857363</v>
       </c>
       <c r="I5">
-        <v>857363</v>
+        <v>912240.625</v>
       </c>
       <c r="J5">
-        <v>912240.625</v>
+        <v>873260.3125</v>
       </c>
       <c r="K5">
-        <v>873260.3125</v>
+        <v>873412</v>
       </c>
       <c r="L5">
-        <v>873412</v>
+        <v>786459.8855714849</v>
       </c>
       <c r="M5">
-        <v>786459.8855714849</v>
+        <v>645473.5625</v>
       </c>
       <c r="N5">
-        <v>645473.5625</v>
+        <v>648236.0568016755</v>
       </c>
       <c r="O5">
-        <v>648236.0568016755</v>
+        <v>673377.6873333335</v>
       </c>
       <c r="P5">
-        <v>673377.6873333335</v>
+        <v>-5404864.5</v>
       </c>
       <c r="Q5">
-        <v>-5404864.5</v>
+        <v>6865145</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1142,40 +1142,40 @@
         <v>962785.625</v>
       </c>
       <c r="F6">
-        <v>1058622.625</v>
+        <v>834267.375</v>
       </c>
       <c r="G6">
-        <v>834267.375</v>
+        <v>873092.5625</v>
       </c>
       <c r="H6">
-        <v>873092.5625</v>
+        <v>848938.8125</v>
       </c>
       <c r="I6">
-        <v>848938.8125</v>
+        <v>833304.9375</v>
       </c>
       <c r="J6">
-        <v>833304.9375</v>
+        <v>863349</v>
       </c>
       <c r="K6">
-        <v>863349</v>
+        <v>660190.5625</v>
       </c>
       <c r="L6">
-        <v>660190.5625</v>
+        <v>716657.1211299059</v>
       </c>
       <c r="M6">
-        <v>716657.1211299059</v>
+        <v>737058.5625</v>
       </c>
       <c r="N6">
-        <v>737058.5625</v>
+        <v>737449.5066438494</v>
       </c>
       <c r="O6">
-        <v>737449.5066438494</v>
+        <v>739679.1943444065</v>
       </c>
       <c r="P6">
-        <v>739679.1943444065</v>
+        <v>-1189746.25</v>
       </c>
       <c r="Q6">
-        <v>-1189746.25</v>
+        <v>8388591.5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1195,40 +1195,40 @@
         <v>962790.4375</v>
       </c>
       <c r="F7">
-        <v>1029040.875</v>
+        <v>943312.75</v>
       </c>
       <c r="G7">
-        <v>943312.75</v>
+        <v>988304.9375</v>
       </c>
       <c r="H7">
-        <v>988304.9375</v>
+        <v>946960.1875</v>
       </c>
       <c r="I7">
-        <v>946960.1875</v>
+        <v>772083.75</v>
       </c>
       <c r="J7">
-        <v>772083.75</v>
+        <v>926263.1875</v>
       </c>
       <c r="K7">
-        <v>926263.1875</v>
+        <v>906213.125</v>
       </c>
       <c r="L7">
-        <v>906213.125</v>
+        <v>799281.0566926182</v>
       </c>
       <c r="M7">
-        <v>799281.0566926182</v>
+        <v>891492.9375</v>
       </c>
       <c r="N7">
-        <v>891492.9375</v>
+        <v>891758.9626808777</v>
       </c>
       <c r="O7">
-        <v>891758.9626808777</v>
+        <v>868364.7646428571</v>
       </c>
       <c r="P7">
-        <v>868364.7646428571</v>
+        <v>-1537966.5</v>
       </c>
       <c r="Q7">
-        <v>-1537966.5</v>
+        <v>9912054</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1248,40 +1248,40 @@
         <v>962789.6875</v>
       </c>
       <c r="F8">
-        <v>951223.5</v>
+        <v>1003259.125</v>
       </c>
       <c r="G8">
-        <v>1003259.125</v>
+        <v>1008220.875</v>
       </c>
       <c r="H8">
-        <v>1008220.875</v>
+        <v>991990.9375</v>
       </c>
       <c r="I8">
-        <v>991990.9375</v>
+        <v>899186.4375</v>
       </c>
       <c r="J8">
-        <v>899186.4375</v>
+        <v>956354.125</v>
       </c>
       <c r="K8">
-        <v>956354.125</v>
+        <v>919714.9375</v>
       </c>
       <c r="L8">
-        <v>919714.9375</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="M8">
-        <v>891598.8679502531</v>
+        <v>977150.0625</v>
       </c>
       <c r="N8">
-        <v>977150.0625</v>
+        <v>909873.7541929655</v>
       </c>
       <c r="O8">
-        <v>909873.7541929655</v>
+        <v>923310.211804834</v>
       </c>
       <c r="P8">
-        <v>923310.211804834</v>
+        <v>12485534</v>
       </c>
       <c r="Q8">
-        <v>12485534</v>
+        <v>11460805</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1301,40 +1301,40 @@
         <v>962786.6875</v>
       </c>
       <c r="F9">
-        <v>890952.875</v>
+        <v>930980.375</v>
       </c>
       <c r="G9">
-        <v>930980.375</v>
+        <v>1011157.75</v>
       </c>
       <c r="H9">
-        <v>1011157.75</v>
+        <v>988472.125</v>
       </c>
       <c r="I9">
-        <v>988472.125</v>
+        <v>1155639.25</v>
       </c>
       <c r="J9">
-        <v>1155639.25</v>
+        <v>921361.375</v>
       </c>
       <c r="K9">
-        <v>921361.375</v>
+        <v>846694.8125</v>
       </c>
       <c r="L9">
-        <v>846694.8125</v>
+        <v>828373.5874550424</v>
       </c>
       <c r="M9">
-        <v>828373.5874550424</v>
+        <v>864513.125</v>
       </c>
       <c r="N9">
-        <v>864513.125</v>
+        <v>865475.3607832349</v>
       </c>
       <c r="O9">
-        <v>865475.3607832349</v>
+        <v>864092.8148971865</v>
       </c>
       <c r="P9">
-        <v>864092.8148971865</v>
+        <v>15469295</v>
       </c>
       <c r="Q9">
-        <v>15469295</v>
+        <v>13065231</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1354,40 +1354,40 @@
         <v>962786.9375</v>
       </c>
       <c r="F10">
-        <v>875513.75</v>
+        <v>966886</v>
       </c>
       <c r="G10">
-        <v>966886</v>
+        <v>943336</v>
       </c>
       <c r="H10">
-        <v>943336</v>
+        <v>963096.75</v>
       </c>
       <c r="I10">
-        <v>963096.75</v>
+        <v>1140444.875</v>
       </c>
       <c r="J10">
-        <v>1140444.875</v>
+        <v>816905.3125</v>
       </c>
       <c r="K10">
-        <v>816905.3125</v>
+        <v>858087.6875</v>
       </c>
       <c r="L10">
-        <v>858087.6875</v>
+        <v>764753.6759145448</v>
       </c>
       <c r="M10">
-        <v>764753.6759145448</v>
+        <v>742881.375</v>
       </c>
       <c r="N10">
-        <v>742881.375</v>
+        <v>743340.2843491447</v>
       </c>
       <c r="O10">
-        <v>743340.2843491447</v>
+        <v>754977.432238095</v>
       </c>
       <c r="P10">
-        <v>754977.432238095</v>
+        <v>12474751</v>
       </c>
       <c r="Q10">
-        <v>12474751</v>
+        <v>14669657</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1407,40 +1407,40 @@
         <v>962787.125</v>
       </c>
       <c r="F11">
-        <v>873887.5625</v>
+        <v>822539.9375</v>
       </c>
       <c r="G11">
-        <v>822539.9375</v>
+        <v>750389.25</v>
       </c>
       <c r="H11">
-        <v>750389.25</v>
+        <v>752237.75</v>
       </c>
       <c r="I11">
-        <v>752237.75</v>
+        <v>812410.375</v>
       </c>
       <c r="J11">
-        <v>812410.375</v>
+        <v>541284.4375</v>
       </c>
       <c r="K11">
-        <v>541284.4375</v>
+        <v>609530</v>
       </c>
       <c r="L11">
-        <v>609530</v>
+        <v>716657.1211299059</v>
       </c>
       <c r="M11">
-        <v>716657.1211299059</v>
+        <v>737058.5625</v>
       </c>
       <c r="N11">
-        <v>737058.5625</v>
+        <v>737449.5066438494</v>
       </c>
       <c r="O11">
-        <v>737449.5066438494</v>
+        <v>739679.1943444065</v>
       </c>
       <c r="P11">
-        <v>739679.1943444065</v>
+        <v>11851154</v>
       </c>
       <c r="Q11">
-        <v>11851154</v>
+        <v>16274088</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1460,40 +1460,40 @@
         <v>962787.5</v>
       </c>
       <c r="F12">
-        <v>921577.875</v>
+        <v>928172.25</v>
       </c>
       <c r="G12">
-        <v>928172.25</v>
+        <v>840354.3125</v>
       </c>
       <c r="H12">
-        <v>840354.3125</v>
+        <v>832622.625</v>
       </c>
       <c r="I12">
-        <v>832622.625</v>
+        <v>801568.4375</v>
       </c>
       <c r="J12">
-        <v>801568.4375</v>
+        <v>587759.5</v>
       </c>
       <c r="K12">
-        <v>587759.5</v>
+        <v>707780</v>
       </c>
       <c r="L12">
-        <v>707780</v>
+        <v>793763.473869375</v>
       </c>
       <c r="M12">
-        <v>793763.473869375</v>
+        <v>806892.3125</v>
       </c>
       <c r="N12">
-        <v>806892.3125</v>
+        <v>802711.9152008167</v>
       </c>
       <c r="O12">
-        <v>802711.9152008167</v>
+        <v>765920.8731785713</v>
       </c>
       <c r="P12">
-        <v>765920.8731785713</v>
+        <v>11206404</v>
       </c>
       <c r="Q12">
-        <v>11206404</v>
+        <v>18283452</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1513,40 +1513,40 @@
         <v>962787.625</v>
       </c>
       <c r="F13">
-        <v>957761.5625</v>
+        <v>842092.625</v>
       </c>
       <c r="G13">
-        <v>842092.625</v>
+        <v>757342.3125</v>
       </c>
       <c r="H13">
-        <v>757342.3125</v>
+        <v>687433</v>
       </c>
       <c r="I13">
-        <v>687433</v>
+        <v>845292.3125</v>
       </c>
       <c r="J13">
-        <v>845292.3125</v>
+        <v>457426.53125</v>
       </c>
       <c r="K13">
-        <v>457426.53125</v>
+        <v>605107.0625</v>
       </c>
       <c r="L13">
-        <v>605107.0625</v>
+        <v>764753.6759145448</v>
       </c>
       <c r="M13">
-        <v>764753.6759145448</v>
+        <v>742881.375</v>
       </c>
       <c r="N13">
-        <v>742881.375</v>
+        <v>743340.2843491447</v>
       </c>
       <c r="O13">
-        <v>743340.2843491447</v>
+        <v>754977.432238095</v>
       </c>
       <c r="P13">
-        <v>754977.432238095</v>
+        <v>9360363</v>
       </c>
       <c r="Q13">
-        <v>9360363</v>
+        <v>22047598</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1566,40 +1566,40 @@
         <v>962788.625</v>
       </c>
       <c r="F14">
-        <v>931775.6875</v>
+        <v>823420.6875</v>
       </c>
       <c r="G14">
-        <v>823420.6875</v>
+        <v>765860.4375</v>
       </c>
       <c r="H14">
-        <v>765860.4375</v>
+        <v>712523.75</v>
       </c>
       <c r="I14">
-        <v>712523.75</v>
+        <v>894478.5</v>
       </c>
       <c r="J14">
-        <v>894478.5</v>
+        <v>593668.4375</v>
       </c>
       <c r="K14">
-        <v>593668.4375</v>
+        <v>647691.875</v>
       </c>
       <c r="L14">
-        <v>647691.875</v>
+        <v>693123.6154550827</v>
       </c>
       <c r="M14">
-        <v>693123.6154550827</v>
+        <v>671510.875</v>
       </c>
       <c r="N14">
-        <v>671510.875</v>
+        <v>670238.5939894114</v>
       </c>
       <c r="O14">
-        <v>670238.5939894114</v>
+        <v>666634.0994241867</v>
       </c>
       <c r="P14">
-        <v>666634.0994241867</v>
+        <v>11405830</v>
       </c>
       <c r="Q14">
-        <v>11405830</v>
+        <v>25811740</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1619,40 +1619,40 @@
         <v>962788.8125</v>
       </c>
       <c r="F15">
-        <v>917783.8125</v>
+        <v>946156.8125</v>
       </c>
       <c r="G15">
-        <v>946156.8125</v>
+        <v>809579.625</v>
       </c>
       <c r="H15">
-        <v>809579.625</v>
+        <v>884403.0625</v>
       </c>
       <c r="I15">
-        <v>884403.0625</v>
+        <v>776655.125</v>
       </c>
       <c r="J15">
-        <v>776655.125</v>
+        <v>717411.4375</v>
       </c>
       <c r="K15">
-        <v>717411.4375</v>
+        <v>847455.6875</v>
       </c>
       <c r="L15">
-        <v>847455.6875</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="M15">
-        <v>891598.8679502531</v>
+        <v>916662.375</v>
       </c>
       <c r="N15">
-        <v>916662.375</v>
+        <v>934076.5863701217</v>
       </c>
       <c r="O15">
-        <v>934076.5863701217</v>
+        <v>909471.2724166667</v>
       </c>
       <c r="P15">
-        <v>909471.2724166667</v>
+        <v>13388043</v>
       </c>
       <c r="Q15">
-        <v>13388043</v>
+        <v>29575880</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1672,40 +1672,40 @@
         <v>962788.5</v>
       </c>
       <c r="F16">
-        <v>1019757.1875</v>
+        <v>803330.5</v>
       </c>
       <c r="G16">
-        <v>803330.5</v>
+        <v>733971.8125</v>
       </c>
       <c r="H16">
-        <v>733971.8125</v>
+        <v>688758</v>
       </c>
       <c r="I16">
-        <v>688758</v>
+        <v>778950.75</v>
       </c>
       <c r="J16">
-        <v>778950.75</v>
+        <v>598741.3125</v>
       </c>
       <c r="K16">
-        <v>598741.3125</v>
+        <v>697801.25</v>
       </c>
       <c r="L16">
-        <v>697801.25</v>
+        <v>755065.0793452159</v>
       </c>
       <c r="M16">
-        <v>755065.0793452159</v>
+        <v>856314.375</v>
       </c>
       <c r="N16">
-        <v>856314.375</v>
+        <v>853917.8688880595</v>
       </c>
       <c r="O16">
-        <v>853917.8688880595</v>
+        <v>841374.6702770565</v>
       </c>
       <c r="P16">
-        <v>841374.6702770565</v>
+        <v>7364211.5</v>
       </c>
       <c r="Q16">
-        <v>7364211.5</v>
+        <v>33033452</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1725,40 +1725,40 @@
         <v>962786.5625</v>
       </c>
       <c r="F17">
-        <v>1120158.25</v>
+        <v>759785.125</v>
       </c>
       <c r="G17">
-        <v>759785.125</v>
+        <v>691875.125</v>
       </c>
       <c r="H17">
-        <v>691875.125</v>
+        <v>613213.875</v>
       </c>
       <c r="I17">
-        <v>613213.875</v>
+        <v>741080.75</v>
       </c>
       <c r="J17">
-        <v>741080.75</v>
+        <v>550556.25</v>
       </c>
       <c r="K17">
-        <v>550556.25</v>
+        <v>692256</v>
       </c>
       <c r="L17">
-        <v>692256</v>
+        <v>824929.317296171</v>
       </c>
       <c r="M17">
-        <v>824929.317296171</v>
+        <v>883311.8125</v>
       </c>
       <c r="N17">
-        <v>883311.8125</v>
+        <v>877699.4252782038</v>
       </c>
       <c r="O17">
-        <v>877699.4252782038</v>
+        <v>853246.6203012821</v>
       </c>
       <c r="P17">
-        <v>853246.6203012821</v>
+        <v>16390917</v>
       </c>
       <c r="Q17">
-        <v>16390917</v>
+        <v>31892748</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1778,40 +1778,40 @@
         <v>962788</v>
       </c>
       <c r="F18">
-        <v>1171726.25</v>
+        <v>847765.375</v>
       </c>
       <c r="G18">
-        <v>847765.375</v>
+        <v>682495.75</v>
       </c>
       <c r="H18">
-        <v>682495.75</v>
+        <v>613256.75</v>
       </c>
       <c r="I18">
-        <v>613256.75</v>
+        <v>627708.3125</v>
       </c>
       <c r="J18">
-        <v>627708.3125</v>
+        <v>564594.3125</v>
       </c>
       <c r="K18">
-        <v>564594.3125</v>
+        <v>702194.625</v>
       </c>
       <c r="L18">
-        <v>702194.625</v>
+        <v>751708.3399469188</v>
       </c>
       <c r="M18">
-        <v>751708.3399469188</v>
+        <v>783829.1875</v>
       </c>
       <c r="N18">
-        <v>783829.1875</v>
+        <v>783435.6375703098</v>
       </c>
       <c r="O18">
-        <v>783435.6375703098</v>
+        <v>781285.8103112169</v>
       </c>
       <c r="P18">
-        <v>781285.8103112169</v>
+        <v>14106606</v>
       </c>
       <c r="Q18">
-        <v>14106606</v>
+        <v>30752050</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1831,40 +1831,40 @@
         <v>962787.4375</v>
       </c>
       <c r="F19">
-        <v>1223290.75</v>
+        <v>843283.375</v>
       </c>
       <c r="G19">
-        <v>843283.375</v>
+        <v>716323.375</v>
       </c>
       <c r="H19">
-        <v>716323.375</v>
+        <v>776888.625</v>
       </c>
       <c r="I19">
-        <v>776888.625</v>
+        <v>536018.0625</v>
       </c>
       <c r="J19">
-        <v>536018.0625</v>
+        <v>584366.625</v>
       </c>
       <c r="K19">
-        <v>584366.625</v>
+        <v>767065.0625</v>
       </c>
       <c r="L19">
-        <v>767065.0625</v>
+        <v>864621.0921165585</v>
       </c>
       <c r="M19">
-        <v>864621.0921165585</v>
+        <v>935979.3125</v>
       </c>
       <c r="N19">
-        <v>935979.3125</v>
+        <v>935003.0584097266</v>
       </c>
       <c r="O19">
-        <v>935003.0584097266</v>
+        <v>923759.4208333334</v>
       </c>
       <c r="P19">
-        <v>923759.4208333334</v>
+        <v>9526541</v>
       </c>
       <c r="Q19">
-        <v>9526541</v>
+        <v>29611400</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1884,40 +1884,40 @@
         <v>962787.6875</v>
       </c>
       <c r="F20">
-        <v>1039653.625</v>
+        <v>872024.125</v>
       </c>
       <c r="G20">
-        <v>872024.125</v>
+        <v>663019.4375</v>
       </c>
       <c r="H20">
-        <v>663019.4375</v>
+        <v>607027.5625</v>
       </c>
       <c r="I20">
-        <v>607027.5625</v>
+        <v>779337.1875</v>
       </c>
       <c r="J20">
-        <v>779337.1875</v>
+        <v>586412.875</v>
       </c>
       <c r="K20">
-        <v>586412.875</v>
+        <v>803594.0625</v>
       </c>
       <c r="L20">
-        <v>803594.0625</v>
+        <v>820741.2497030696</v>
       </c>
       <c r="M20">
-        <v>820741.2497030696</v>
+        <v>925104.0625</v>
       </c>
       <c r="N20">
-        <v>925104.0625</v>
+        <v>923847.1420002986</v>
       </c>
       <c r="O20">
-        <v>923847.1420002986</v>
+        <v>910675.1330714284</v>
       </c>
       <c r="P20">
-        <v>910675.1330714284</v>
+        <v>10926579</v>
       </c>
       <c r="Q20">
-        <v>10926579</v>
+        <v>28470690</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1937,40 +1937,40 @@
         <v>962786</v>
       </c>
       <c r="F21">
-        <v>848429.3125</v>
+        <v>905754.8125</v>
       </c>
       <c r="G21">
-        <v>905754.8125</v>
+        <v>744068.0625</v>
       </c>
       <c r="H21">
-        <v>744068.0625</v>
+        <v>661617.375</v>
       </c>
       <c r="I21">
-        <v>661617.375</v>
+        <v>534767.0625</v>
       </c>
       <c r="J21">
-        <v>534767.0625</v>
+        <v>622496.75</v>
       </c>
       <c r="K21">
-        <v>622496.75</v>
+        <v>778356.5</v>
       </c>
       <c r="L21">
-        <v>778356.5</v>
+        <v>799505.221539111</v>
       </c>
       <c r="M21">
-        <v>799505.221539111</v>
+        <v>829620.375</v>
       </c>
       <c r="N21">
-        <v>829620.375</v>
+        <v>829805.9591854673</v>
       </c>
       <c r="O21">
-        <v>829805.9591854673</v>
+        <v>828693.3498113276</v>
       </c>
       <c r="P21">
-        <v>828693.3498113276</v>
+        <v>14370654</v>
       </c>
       <c r="Q21">
-        <v>14370654</v>
+        <v>27767220</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1990,40 +1990,40 @@
         <v>962786.5</v>
       </c>
       <c r="F22">
-        <v>869507.25</v>
+        <v>849883.125</v>
       </c>
       <c r="G22">
-        <v>849883.125</v>
+        <v>722228.5625</v>
       </c>
       <c r="H22">
-        <v>722228.5625</v>
+        <v>638367</v>
       </c>
       <c r="I22">
-        <v>638367</v>
+        <v>919038.9375</v>
       </c>
       <c r="J22">
-        <v>919038.9375</v>
+        <v>614589.5</v>
       </c>
       <c r="K22">
-        <v>614589.5</v>
+        <v>791461.3125</v>
       </c>
       <c r="L22">
-        <v>791461.3125</v>
+        <v>737095.9237023004</v>
       </c>
       <c r="M22">
-        <v>737095.9237023004</v>
+        <v>710048.5625</v>
       </c>
       <c r="N22">
-        <v>710048.5625</v>
+        <v>710138.1638713292</v>
       </c>
       <c r="O22">
-        <v>710138.1638713292</v>
+        <v>716961.3829173604</v>
       </c>
       <c r="P22">
-        <v>716961.3829173604</v>
+        <v>9413487</v>
       </c>
       <c r="Q22">
-        <v>9413487</v>
+        <v>27092916</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2043,40 +2043,40 @@
         <v>962787.6875</v>
       </c>
       <c r="F23">
-        <v>912544.6875</v>
+        <v>850927.8125</v>
       </c>
       <c r="G23">
-        <v>850927.8125</v>
+        <v>761915.6875</v>
       </c>
       <c r="H23">
-        <v>761915.6875</v>
+        <v>709601.8125</v>
       </c>
       <c r="I23">
-        <v>709601.8125</v>
+        <v>739373.4375</v>
       </c>
       <c r="J23">
-        <v>739373.4375</v>
+        <v>731161.3125</v>
       </c>
       <c r="K23">
-        <v>731161.3125</v>
+        <v>816727.125</v>
       </c>
       <c r="L23">
-        <v>816727.125</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="M23">
-        <v>891598.8679502531</v>
+        <v>884836.5</v>
       </c>
       <c r="N23">
-        <v>884836.5</v>
+        <v>885692.6704541745</v>
       </c>
       <c r="O23">
-        <v>885692.6704541745</v>
+        <v>886345.3425714289</v>
       </c>
       <c r="P23">
-        <v>886345.3425714289</v>
+        <v>9268813</v>
       </c>
       <c r="Q23">
-        <v>9268813</v>
+        <v>26418610</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2096,40 +2096,40 @@
         <v>962787.1875</v>
       </c>
       <c r="F24">
-        <v>935376.0625</v>
+        <v>633124.375</v>
       </c>
       <c r="G24">
-        <v>633124.375</v>
+        <v>498975.375</v>
       </c>
       <c r="H24">
-        <v>498975.375</v>
+        <v>529197.875</v>
       </c>
       <c r="I24">
-        <v>529197.875</v>
+        <v>816496.375</v>
       </c>
       <c r="J24">
-        <v>816496.375</v>
+        <v>516830.78125</v>
       </c>
       <c r="K24">
-        <v>516830.78125</v>
+        <v>618552.375</v>
       </c>
       <c r="L24">
-        <v>618552.375</v>
+        <v>768140.0246522534</v>
       </c>
       <c r="M24">
-        <v>768140.0246522534</v>
+        <v>797295.875</v>
       </c>
       <c r="N24">
-        <v>797295.875</v>
+        <v>796953.7915318637</v>
       </c>
       <c r="O24">
-        <v>796953.7915318637</v>
+        <v>790559.7446666667</v>
       </c>
       <c r="P24">
-        <v>790559.7446666667</v>
+        <v>11801365</v>
       </c>
       <c r="Q24">
-        <v>11801365</v>
+        <v>25744294</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2149,40 +2149,40 @@
         <v>962786.875</v>
       </c>
       <c r="F25">
-        <v>954466.8125</v>
+        <v>669787.1875</v>
       </c>
       <c r="G25">
-        <v>669787.1875</v>
+        <v>433870.46875</v>
       </c>
       <c r="H25">
-        <v>433870.46875</v>
+        <v>541402.0625</v>
       </c>
       <c r="I25">
-        <v>541402.0625</v>
+        <v>1014056.5625</v>
       </c>
       <c r="J25">
-        <v>1014056.5625</v>
+        <v>430521.5</v>
       </c>
       <c r="K25">
-        <v>430521.5</v>
+        <v>687907.375</v>
       </c>
       <c r="L25">
-        <v>687907.375</v>
+        <v>866950.584606506</v>
       </c>
       <c r="M25">
-        <v>866950.584606506</v>
+        <v>977676.875</v>
       </c>
       <c r="N25">
-        <v>977676.875</v>
+        <v>977065.9413771348</v>
       </c>
       <c r="O25">
-        <v>977065.9413771348</v>
+        <v>968580.7619999999</v>
       </c>
       <c r="P25">
-        <v>968580.7619999999</v>
+        <v>9200107</v>
       </c>
       <c r="Q25">
-        <v>9200107</v>
+        <v>25613450</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2202,40 +2202,40 @@
         <v>962786.8125</v>
       </c>
       <c r="F26">
-        <v>968792.375</v>
+        <v>735999.875</v>
       </c>
       <c r="G26">
-        <v>735999.875</v>
+        <v>494741.96875</v>
       </c>
       <c r="H26">
-        <v>494741.96875</v>
+        <v>614138</v>
       </c>
       <c r="I26">
-        <v>614138</v>
+        <v>871098.3125</v>
       </c>
       <c r="J26">
-        <v>871098.3125</v>
+        <v>503505.5625</v>
       </c>
       <c r="K26">
-        <v>503505.5625</v>
+        <v>731288.375</v>
       </c>
       <c r="L26">
-        <v>731288.375</v>
+        <v>828373.5874550424</v>
       </c>
       <c r="M26">
-        <v>828373.5874550424</v>
+        <v>864513.125</v>
       </c>
       <c r="N26">
-        <v>864513.125</v>
+        <v>865475.3607832349</v>
       </c>
       <c r="O26">
-        <v>865475.3607832349</v>
+        <v>864092.8148971865</v>
       </c>
       <c r="P26">
-        <v>864092.8148971865</v>
+        <v>22978500</v>
       </c>
       <c r="Q26">
-        <v>22978500</v>
+        <v>25608020</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2255,40 +2255,40 @@
         <v>962787.125</v>
       </c>
       <c r="F27">
-        <v>981782.375</v>
+        <v>797888.625</v>
       </c>
       <c r="G27">
-        <v>797888.625</v>
+        <v>684645.125</v>
       </c>
       <c r="H27">
-        <v>684645.125</v>
+        <v>716691.375</v>
       </c>
       <c r="I27">
-        <v>716691.375</v>
+        <v>1144123.375</v>
       </c>
       <c r="J27">
-        <v>1144123.375</v>
+        <v>724192.875</v>
       </c>
       <c r="K27">
-        <v>724192.875</v>
+        <v>813300.5625</v>
       </c>
       <c r="L27">
-        <v>813300.5625</v>
+        <v>866950.584606506</v>
       </c>
       <c r="M27">
-        <v>866950.584606506</v>
+        <v>701215.375</v>
       </c>
       <c r="N27">
-        <v>701215.375</v>
+        <v>710232.0093093037</v>
       </c>
       <c r="O27">
-        <v>710232.0093093037</v>
+        <v>785458.8696666665</v>
       </c>
       <c r="P27">
-        <v>785458.8696666665</v>
+        <v>22317442</v>
       </c>
       <c r="Q27">
-        <v>22317442</v>
+        <v>25602596</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2308,40 +2308,40 @@
         <v>962787.125</v>
       </c>
       <c r="F28">
-        <v>1872644.75</v>
+        <v>760439.75</v>
       </c>
       <c r="G28">
-        <v>760439.75</v>
+        <v>626077.875</v>
       </c>
       <c r="H28">
-        <v>626077.875</v>
+        <v>693236.5625</v>
       </c>
       <c r="I28">
-        <v>693236.5625</v>
+        <v>768228.875</v>
       </c>
       <c r="J28">
-        <v>768228.875</v>
+        <v>652753</v>
       </c>
       <c r="K28">
-        <v>652753</v>
+        <v>823461.9375</v>
       </c>
       <c r="L28">
-        <v>823461.9375</v>
+        <v>713562.4180274772</v>
       </c>
       <c r="M28">
-        <v>713562.4180274772</v>
+        <v>726234.3125</v>
       </c>
       <c r="N28">
-        <v>726234.3125</v>
+        <v>738045.533730357</v>
       </c>
       <c r="O28">
-        <v>738045.533730357</v>
+        <v>718196.9133805915</v>
       </c>
       <c r="P28">
-        <v>718196.9133805915</v>
+        <v>17386074</v>
       </c>
       <c r="Q28">
-        <v>17386074</v>
+        <v>25597170</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2361,40 +2361,40 @@
         <v>962786.875</v>
       </c>
       <c r="F29">
-        <v>3107019.25</v>
+        <v>758002.25</v>
       </c>
       <c r="G29">
-        <v>758002.25</v>
+        <v>647040.5</v>
       </c>
       <c r="H29">
-        <v>647040.5</v>
+        <v>665703.875</v>
       </c>
       <c r="I29">
-        <v>665703.875</v>
+        <v>989268.3125</v>
       </c>
       <c r="J29">
-        <v>989268.3125</v>
+        <v>625340.1875</v>
       </c>
       <c r="K29">
-        <v>625340.1875</v>
+        <v>832753.375</v>
       </c>
       <c r="L29">
-        <v>832753.375</v>
+        <v>824929.317296171</v>
       </c>
       <c r="M29">
-        <v>824929.317296171</v>
+        <v>883311.8125</v>
       </c>
       <c r="N29">
-        <v>883311.8125</v>
+        <v>877699.4252782038</v>
       </c>
       <c r="O29">
-        <v>877699.4252782038</v>
+        <v>853246.6203012821</v>
       </c>
       <c r="P29">
-        <v>853246.6203012821</v>
+        <v>21063496</v>
       </c>
       <c r="Q29">
-        <v>21063496</v>
+        <v>26606316</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2414,40 +2414,40 @@
         <v>962787.5625</v>
       </c>
       <c r="F30">
-        <v>3987612.75</v>
+        <v>821263</v>
       </c>
       <c r="G30">
-        <v>821263</v>
+        <v>698362.0625</v>
       </c>
       <c r="H30">
-        <v>698362.0625</v>
+        <v>688192.0625</v>
       </c>
       <c r="I30">
-        <v>688192.0625</v>
+        <v>1024684.1875</v>
       </c>
       <c r="J30">
-        <v>1024684.1875</v>
+        <v>724092.25</v>
       </c>
       <c r="K30">
-        <v>724092.25</v>
+        <v>906164.125</v>
       </c>
       <c r="L30">
-        <v>906164.125</v>
+        <v>764753.6759145448</v>
       </c>
       <c r="M30">
-        <v>764753.6759145448</v>
+        <v>742881.375</v>
       </c>
       <c r="N30">
-        <v>742881.375</v>
+        <v>743340.2843491447</v>
       </c>
       <c r="O30">
-        <v>743340.2843491447</v>
+        <v>754977.432238095</v>
       </c>
       <c r="P30">
-        <v>754977.432238095</v>
+        <v>17873402</v>
       </c>
       <c r="Q30">
-        <v>17873402</v>
+        <v>28076642</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2467,40 +2467,40 @@
         <v>962787.625</v>
       </c>
       <c r="F31">
-        <v>4682888</v>
+        <v>703843.5625</v>
       </c>
       <c r="G31">
-        <v>703843.5625</v>
+        <v>543304.375</v>
       </c>
       <c r="H31">
-        <v>543304.375</v>
+        <v>593870.375</v>
       </c>
       <c r="I31">
-        <v>593870.375</v>
+        <v>749024.625</v>
       </c>
       <c r="J31">
-        <v>749024.625</v>
+        <v>584075</v>
       </c>
       <c r="K31">
-        <v>584075</v>
+        <v>803016.0625</v>
       </c>
       <c r="L31">
-        <v>803016.0625</v>
+        <v>828373.5874550424</v>
       </c>
       <c r="M31">
-        <v>828373.5874550424</v>
+        <v>864513.125</v>
       </c>
       <c r="N31">
-        <v>864513.125</v>
+        <v>865475.3607832349</v>
       </c>
       <c r="O31">
-        <v>865475.3607832349</v>
+        <v>864092.8148971865</v>
       </c>
       <c r="P31">
-        <v>864092.8148971865</v>
+        <v>35911352</v>
       </c>
       <c r="Q31">
-        <v>35911352</v>
+        <v>29546958</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2520,40 +2520,40 @@
         <v>962787.25</v>
       </c>
       <c r="F32">
-        <v>4961095.5</v>
+        <v>910959.125</v>
       </c>
       <c r="G32">
-        <v>910959.125</v>
+        <v>708910.1875</v>
       </c>
       <c r="H32">
-        <v>708910.1875</v>
+        <v>746097.8125</v>
       </c>
       <c r="I32">
-        <v>746097.8125</v>
+        <v>907508.5</v>
       </c>
       <c r="J32">
-        <v>907508.5</v>
+        <v>838784.5</v>
       </c>
       <c r="K32">
-        <v>838784.5</v>
+        <v>945923.5</v>
       </c>
       <c r="L32">
-        <v>945923.5</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="M32">
-        <v>891598.8679502531</v>
+        <v>884836.5</v>
       </c>
       <c r="N32">
-        <v>884836.5</v>
+        <v>885692.6704541745</v>
       </c>
       <c r="O32">
-        <v>885692.6704541745</v>
+        <v>886345.3425714289</v>
       </c>
       <c r="P32">
-        <v>886345.3425714289</v>
+        <v>47264464</v>
       </c>
       <c r="Q32">
-        <v>47264464</v>
+        <v>31017294</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2573,40 +2573,40 @@
         <v>962787.4375</v>
       </c>
       <c r="F33">
-        <v>4953919.5</v>
+        <v>866504.875</v>
       </c>
       <c r="G33">
-        <v>866504.875</v>
+        <v>791161.0625</v>
       </c>
       <c r="H33">
-        <v>791161.0625</v>
+        <v>820290.625</v>
       </c>
       <c r="I33">
-        <v>820290.625</v>
+        <v>800327.6875</v>
       </c>
       <c r="J33">
-        <v>800327.6875</v>
+        <v>890126.5625</v>
       </c>
       <c r="K33">
-        <v>890126.5625</v>
+        <v>982303.8125</v>
       </c>
       <c r="L33">
-        <v>982303.8125</v>
+        <v>799505.221539111</v>
       </c>
       <c r="M33">
-        <v>799505.221539111</v>
+        <v>829620.375</v>
       </c>
       <c r="N33">
-        <v>829620.375</v>
+        <v>829805.9591854673</v>
       </c>
       <c r="O33">
-        <v>829805.9591854673</v>
+        <v>828693.3498113276</v>
       </c>
       <c r="P33">
-        <v>828693.3498113276</v>
+        <v>65395548</v>
       </c>
       <c r="Q33">
-        <v>65395548</v>
+        <v>31660602</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2626,40 +2626,40 @@
         <v>962787.4375</v>
       </c>
       <c r="F34">
-        <v>4950555</v>
+        <v>903893.9375</v>
       </c>
       <c r="G34">
-        <v>903893.9375</v>
+        <v>688216.25</v>
       </c>
       <c r="H34">
-        <v>688216.25</v>
+        <v>750873.75</v>
       </c>
       <c r="I34">
-        <v>750873.75</v>
+        <v>703149.25</v>
       </c>
       <c r="J34">
-        <v>703149.25</v>
+        <v>767840.9375</v>
       </c>
       <c r="K34">
-        <v>767840.9375</v>
+        <v>983641.25</v>
       </c>
       <c r="L34">
-        <v>983641.25</v>
+        <v>716657.1211299059</v>
       </c>
       <c r="M34">
-        <v>716657.1211299059</v>
+        <v>737058.5625</v>
       </c>
       <c r="N34">
-        <v>737058.5625</v>
+        <v>737449.5066438494</v>
       </c>
       <c r="O34">
-        <v>737449.5066438494</v>
+        <v>739679.1943444065</v>
       </c>
       <c r="P34">
-        <v>739679.1943444065</v>
+        <v>67984872</v>
       </c>
       <c r="Q34">
-        <v>67984872</v>
+        <v>31660632</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>22858312977.64274</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>21200368533.14494</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>22124519681.00407</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>23613940329.40853</v>
@@ -2830,28 +2830,28 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>24148189602.76351</v>
+        <v>24148192708.98616</v>
       </c>
       <c r="C7">
-        <v>155396.8777124029</v>
+        <v>155396.8877068848</v>
       </c>
       <c r="D7">
-        <v>0.03107628833428283</v>
+        <v>0.03107629276266032</v>
       </c>
       <c r="E7">
-        <v>84533.68229166667</v>
+        <v>84533.484375</v>
       </c>
       <c r="F7">
-        <v>0.1233268256671785</v>
+        <v>0.1233264715054841</v>
       </c>
       <c r="G7">
-        <v>38887.125</v>
+        <v>38887.078125</v>
       </c>
       <c r="H7">
-        <v>0.08562361668801632</v>
+        <v>0.08562475251156559</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2882,7 +2882,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>25121477691.57707</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>28601409498.62117</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>47712558995.49239</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>43655267194.89901</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>49486892158.47128</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>50293922612.02682</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>2868176593271.097</v>
@@ -3086,46 +3086,46 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3154,7 +3154,7 @@
         <v>597694.625</v>
       </c>
       <c r="I2">
-        <v>492765.28125</v>
+        <v>492764.6875</v>
       </c>
       <c r="J2">
         <v>492769.34375</v>
@@ -3207,7 +3207,7 @@
         <v>492544.8125</v>
       </c>
       <c r="I3">
-        <v>492765.9375</v>
+        <v>492765.8125</v>
       </c>
       <c r="J3">
         <v>492768.6875</v>
@@ -3260,7 +3260,7 @@
         <v>507227.3125</v>
       </c>
       <c r="I4">
-        <v>492767.5</v>
+        <v>492768.3125</v>
       </c>
       <c r="J4">
         <v>492769.8125</v>
@@ -3313,7 +3313,7 @@
         <v>456454.9375</v>
       </c>
       <c r="I5">
-        <v>492768.25</v>
+        <v>492769.34375</v>
       </c>
       <c r="J5">
         <v>492765.34375</v>
@@ -3366,7 +3366,7 @@
         <v>403254.6875</v>
       </c>
       <c r="I6">
-        <v>492768.4375</v>
+        <v>492769.03125</v>
       </c>
       <c r="J6">
         <v>492773.21875</v>
@@ -3419,7 +3419,7 @@
         <v>503790.1875</v>
       </c>
       <c r="I7">
-        <v>492768.46875</v>
+        <v>492768.75</v>
       </c>
       <c r="J7">
         <v>492774.25</v>
@@ -3472,7 +3472,7 @@
         <v>505675.15625</v>
       </c>
       <c r="I8">
-        <v>492768.3125</v>
+        <v>492768.84375</v>
       </c>
       <c r="J8">
         <v>492831.78125</v>
@@ -3525,7 +3525,7 @@
         <v>512694.53125</v>
       </c>
       <c r="I9">
-        <v>492768.25</v>
+        <v>492768.90625</v>
       </c>
       <c r="J9">
         <v>492822.5625</v>
@@ -3578,7 +3578,7 @@
         <v>562272.625</v>
       </c>
       <c r="I10">
-        <v>492768.125</v>
+        <v>492768.59375</v>
       </c>
       <c r="J10">
         <v>492824.46875</v>
@@ -3631,7 +3631,7 @@
         <v>360228.03125</v>
       </c>
       <c r="I11">
-        <v>492768.1875</v>
+        <v>492768.5625</v>
       </c>
       <c r="J11">
         <v>492820.1875</v>
@@ -3684,7 +3684,7 @@
         <v>400837.0625</v>
       </c>
       <c r="I12">
-        <v>492768.5625</v>
+        <v>492769</v>
       </c>
       <c r="J12">
         <v>492830.21875</v>
@@ -3737,7 +3737,7 @@
         <v>468222.40625</v>
       </c>
       <c r="I13">
-        <v>492768.875</v>
+        <v>492769.53125</v>
       </c>
       <c r="J13">
         <v>492830.40625</v>
@@ -3790,7 +3790,7 @@
         <v>412898.21875</v>
       </c>
       <c r="I14">
-        <v>492770.21875</v>
+        <v>492770</v>
       </c>
       <c r="J14">
         <v>492834.59375</v>
@@ -3843,7 +3843,7 @@
         <v>425073.0625</v>
       </c>
       <c r="I15">
-        <v>492771.40625</v>
+        <v>492770.40625</v>
       </c>
       <c r="J15">
         <v>492830.71875</v>
@@ -3896,7 +3896,7 @@
         <v>449707.5</v>
       </c>
       <c r="I16">
-        <v>492770.1875</v>
+        <v>492769.375</v>
       </c>
       <c r="J16">
         <v>492827.09375</v>
@@ -3949,7 +3949,7 @@
         <v>368617.15625</v>
       </c>
       <c r="I17">
-        <v>492769.0625</v>
+        <v>492767.8125</v>
       </c>
       <c r="J17">
         <v>492829.4375</v>
@@ -4055,7 +4055,7 @@
         <v>442620.28125</v>
       </c>
       <c r="I19">
-        <v>492769.84375</v>
+        <v>492771.0625</v>
       </c>
       <c r="J19">
         <v>492828.84375</v>
@@ -4108,7 +4108,7 @@
         <v>380330.875</v>
       </c>
       <c r="I20">
-        <v>492769.59375</v>
+        <v>492769.90625</v>
       </c>
       <c r="J20">
         <v>492828.96875</v>
@@ -4161,7 +4161,7 @@
         <v>471182.5</v>
       </c>
       <c r="I21">
-        <v>492769.125</v>
+        <v>492769</v>
       </c>
       <c r="J21">
         <v>492827.25</v>
@@ -4267,7 +4267,7 @@
         <v>373446.5625</v>
       </c>
       <c r="I23">
-        <v>492768.5</v>
+        <v>492768.75</v>
       </c>
       <c r="J23">
         <v>492828.28125</v>
@@ -4320,7 +4320,7 @@
         <v>337781.6875</v>
       </c>
       <c r="I24">
-        <v>492767.53125</v>
+        <v>492767.75</v>
       </c>
       <c r="J24">
         <v>492827.71875</v>
@@ -4373,7 +4373,7 @@
         <v>398661.96875</v>
       </c>
       <c r="I25">
-        <v>492766.8125</v>
+        <v>492766.625</v>
       </c>
       <c r="J25">
         <v>492834.75</v>
@@ -4426,7 +4426,7 @@
         <v>441749.34375</v>
       </c>
       <c r="I26">
-        <v>492767.375</v>
+        <v>492767.25</v>
       </c>
       <c r="J26">
         <v>492831.59375</v>
@@ -4479,7 +4479,7 @@
         <v>455927.59375</v>
       </c>
       <c r="I27">
-        <v>492768.3125</v>
+        <v>492768.46875</v>
       </c>
       <c r="J27">
         <v>492824.0625</v>
@@ -4532,7 +4532,7 @@
         <v>469872.1875</v>
       </c>
       <c r="I28">
-        <v>492769.25</v>
+        <v>492769.3125</v>
       </c>
       <c r="J28">
         <v>492833.46875</v>
@@ -4585,7 +4585,7 @@
         <v>437894.96875</v>
       </c>
       <c r="I29">
-        <v>492769.96875</v>
+        <v>492770.09375</v>
       </c>
       <c r="J29">
         <v>492827.8125</v>
@@ -4638,7 +4638,7 @@
         <v>506695.4375</v>
       </c>
       <c r="I30">
-        <v>492769.46875</v>
+        <v>492771.5</v>
       </c>
       <c r="J30">
         <v>492831.625</v>
@@ -4691,7 +4691,7 @@
         <v>373634.09375</v>
       </c>
       <c r="I31">
-        <v>492768.53125</v>
+        <v>492773.25</v>
       </c>
       <c r="J31">
         <v>492826.71875</v>
@@ -4744,7 +4744,7 @@
         <v>419581.3125</v>
       </c>
       <c r="I32">
-        <v>492769.5625</v>
+        <v>492775.75</v>
       </c>
       <c r="J32">
         <v>492826.5</v>
@@ -4797,7 +4797,7 @@
         <v>512409.65625</v>
       </c>
       <c r="I33">
-        <v>492772.0625</v>
+        <v>492778.65625</v>
       </c>
       <c r="J33">
         <v>492832.09375</v>
@@ -4850,7 +4850,7 @@
         <v>491946.5</v>
       </c>
       <c r="I34">
-        <v>492773.28125</v>
+        <v>492780.03125</v>
       </c>
       <c r="J34">
         <v>492830.75</v>
@@ -4967,33 +4967,33 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>44130130418.72152</v>
+        <v>44130230566.78345</v>
       </c>
       <c r="C4">
-        <v>210071.7268428132</v>
+        <v>210071.9652090289</v>
       </c>
       <c r="D4">
-        <v>0.03894004923754799</v>
+        <v>0.03894008919195439</v>
       </c>
       <c r="E4">
-        <v>98780.015625</v>
+        <v>98779.9296875</v>
       </c>
       <c r="F4">
-        <v>0.1265497123034074</v>
+        <v>0.1265494229327864</v>
       </c>
       <c r="G4">
-        <v>49610.140625</v>
+        <v>49609.484375</v>
       </c>
       <c r="H4">
-        <v>0.1021137199503463</v>
+        <v>0.1021124546796828</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>47637739826.73063</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>44861919494.63053</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>59998134291.59683</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>62178955490.01421</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>62696152118.90527</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>62762648100.49422</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>56132966659.493</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>54675521665.78092</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>58066957694.64884</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>69799217871.79918</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>425374483625.7365</v>
@@ -5307,40 +5307,40 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5360,7 +5360,7 @@
         <v>470044.0625</v>
       </c>
       <c r="F2">
-        <v>470019.6875</v>
+        <v>470018.90625</v>
       </c>
       <c r="G2">
         <v>488547.625</v>
@@ -5413,7 +5413,7 @@
         <v>470046</v>
       </c>
       <c r="F3">
-        <v>470020.15625</v>
+        <v>470019.21875</v>
       </c>
       <c r="G3">
         <v>464886.625</v>
@@ -5466,7 +5466,7 @@
         <v>470044.5625</v>
       </c>
       <c r="F4">
-        <v>470020.78125</v>
+        <v>470019.4375</v>
       </c>
       <c r="G4">
         <v>438079.34375</v>
@@ -5519,7 +5519,7 @@
         <v>470045.46875</v>
       </c>
       <c r="F5">
-        <v>470020.84375</v>
+        <v>470019.53125</v>
       </c>
       <c r="G5">
         <v>434723.6875</v>
@@ -5572,7 +5572,7 @@
         <v>470055.625</v>
       </c>
       <c r="F6">
-        <v>470020.625</v>
+        <v>470020.21875</v>
       </c>
       <c r="G6">
         <v>434028.84375</v>
@@ -5625,7 +5625,7 @@
         <v>470060.5625</v>
       </c>
       <c r="F7">
-        <v>470020.5625</v>
+        <v>470020.4375</v>
       </c>
       <c r="G7">
         <v>379571.46875</v>
@@ -5678,7 +5678,7 @@
         <v>470062.3125</v>
       </c>
       <c r="F8">
-        <v>470021.21875</v>
+        <v>470020.5625</v>
       </c>
       <c r="G8">
         <v>434008.25</v>
@@ -5731,7 +5731,7 @@
         <v>470068.28125</v>
       </c>
       <c r="F9">
-        <v>470021.625</v>
+        <v>470021.21875</v>
       </c>
       <c r="G9">
         <v>531971.875</v>
@@ -5784,7 +5784,7 @@
         <v>470066.6875</v>
       </c>
       <c r="F10">
-        <v>470021.625</v>
+        <v>470022.09375</v>
       </c>
       <c r="G10">
         <v>510370.96875</v>
@@ -5837,7 +5837,7 @@
         <v>470073.53125</v>
       </c>
       <c r="F11">
-        <v>470021.78125</v>
+        <v>470022.96875</v>
       </c>
       <c r="G11">
         <v>438400.875</v>
@@ -5890,7 +5890,7 @@
         <v>470079.15625</v>
       </c>
       <c r="F12">
-        <v>470022.03125</v>
+        <v>470023.0625</v>
       </c>
       <c r="G12">
         <v>436512.65625</v>
@@ -5943,7 +5943,7 @@
         <v>470080.59375</v>
       </c>
       <c r="F13">
-        <v>470022.0625</v>
+        <v>470021.9375</v>
       </c>
       <c r="G13">
         <v>415909.96875</v>
@@ -5996,7 +5996,7 @@
         <v>470087.5625</v>
       </c>
       <c r="F14">
-        <v>470021.53125</v>
+        <v>470021.46875</v>
       </c>
       <c r="G14">
         <v>409905.5</v>
@@ -6049,7 +6049,7 @@
         <v>470092.9375</v>
       </c>
       <c r="F15">
-        <v>470021.21875</v>
+        <v>470021.0625</v>
       </c>
       <c r="G15">
         <v>373806.25</v>
@@ -6102,7 +6102,7 @@
         <v>470091.03125</v>
       </c>
       <c r="F16">
-        <v>470021.34375</v>
+        <v>470020.34375</v>
       </c>
       <c r="G16">
         <v>393538.625</v>
@@ -6155,7 +6155,7 @@
         <v>470096.40625</v>
       </c>
       <c r="F17">
-        <v>470021.375</v>
+        <v>470020.15625</v>
       </c>
       <c r="G17">
         <v>407105.375</v>
@@ -6208,7 +6208,7 @@
         <v>470104.84375</v>
       </c>
       <c r="F18">
-        <v>470021.53125</v>
+        <v>470020.40625</v>
       </c>
       <c r="G18">
         <v>357162.875</v>
@@ -6261,7 +6261,7 @@
         <v>470106.84375</v>
       </c>
       <c r="F19">
-        <v>470021.53125</v>
+        <v>470020.59375</v>
       </c>
       <c r="G19">
         <v>356558.40625</v>
@@ -6314,7 +6314,7 @@
         <v>470113.84375</v>
       </c>
       <c r="F20">
-        <v>470020.9375</v>
+        <v>470019.8125</v>
       </c>
       <c r="G20">
         <v>393169.9375</v>
@@ -6367,7 +6367,7 @@
         <v>470118.375</v>
       </c>
       <c r="F21">
-        <v>470020.28125</v>
+        <v>470019.625</v>
       </c>
       <c r="G21">
         <v>303038.5</v>
@@ -6420,7 +6420,7 @@
         <v>470126.875</v>
       </c>
       <c r="F22">
-        <v>470020.90625</v>
+        <v>470020.28125</v>
       </c>
       <c r="G22">
         <v>453341.9375</v>
@@ -6473,7 +6473,7 @@
         <v>470133.21875</v>
       </c>
       <c r="F23">
-        <v>470021.59375</v>
+        <v>470020.9375</v>
       </c>
       <c r="G23">
         <v>399716.78125</v>
@@ -6526,7 +6526,7 @@
         <v>470136.5625</v>
       </c>
       <c r="F24">
-        <v>470021.15625</v>
+        <v>470021.03125</v>
       </c>
       <c r="G24">
         <v>420482.34375</v>
@@ -6579,7 +6579,7 @@
         <v>470146.875</v>
       </c>
       <c r="F25">
-        <v>470020.65625</v>
+        <v>470020.1875</v>
       </c>
       <c r="G25">
         <v>519754.96875</v>
@@ -6632,7 +6632,7 @@
         <v>470193.8125</v>
       </c>
       <c r="F26">
-        <v>470020.65625</v>
+        <v>470020</v>
       </c>
       <c r="G26">
         <v>438297.21875</v>
@@ -6685,7 +6685,7 @@
         <v>470201.25</v>
       </c>
       <c r="F27">
-        <v>470020.84375</v>
+        <v>470020</v>
       </c>
       <c r="G27">
         <v>575085</v>
@@ -6738,7 +6738,7 @@
         <v>470208.34375</v>
       </c>
       <c r="F28">
-        <v>470020.4375</v>
+        <v>470019.40625</v>
       </c>
       <c r="G28">
         <v>433104.59375</v>
@@ -6791,7 +6791,7 @@
         <v>470214.09375</v>
       </c>
       <c r="F29">
-        <v>470019.96875</v>
+        <v>470019.46875</v>
       </c>
       <c r="G29">
         <v>469233.0625</v>
@@ -6844,7 +6844,7 @@
         <v>470224.375</v>
       </c>
       <c r="F30">
-        <v>470020.21875</v>
+        <v>470020.125</v>
       </c>
       <c r="G30">
         <v>491782.1875</v>
@@ -6950,7 +6950,7 @@
         <v>470236.09375</v>
       </c>
       <c r="F32">
-        <v>470020.8125</v>
+        <v>470021.375</v>
       </c>
       <c r="G32">
         <v>437439</v>
@@ -7003,7 +7003,7 @@
         <v>470263.375</v>
       </c>
       <c r="F33">
-        <v>470020.0625</v>
+        <v>470021.1875</v>
       </c>
       <c r="G33">
         <v>391684.375</v>
@@ -7056,7 +7056,7 @@
         <v>470272.5</v>
       </c>
       <c r="F34">
-        <v>470019.71875</v>
+        <v>470021</v>
       </c>
       <c r="G34">
         <v>331816.96875</v>
